--- a/priklad5/data5.xlsx
+++ b/priklad5/data5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">U</t>
   </si>
@@ -34,17 +34,28 @@
     <t xml:space="preserve">UC(0)</t>
   </si>
   <si>
+    <t xml:space="preserve">Uc</t>
+  </si>
+  <si>
     <t xml:space="preserve">U+(Ucp-U)*e^(-(1/(R*c)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -66,6 +77,11 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,12 +125,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -135,22 +171,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.61"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -158,7 +197,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -166,7 +205,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -174,14 +213,197 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D6/(B4*B3)))</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(1/(B4*B3)))</f>
+        <v>5.01873828613129</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D7/(B4*B3)))</f>
+        <v>5.01873828613129</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <f aca="false">B5</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D8/(B4*B3)))</f>
+        <v>5.03745316403811</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2.71828182846</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D9/(B4*B3)))</f>
+        <v>5.05614466296245</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D10/(B4*B3)))</f>
+        <v>5.07481281210979</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3"/>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D11/(B4*B3)))</f>
+        <v>5.09345764064911</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+      <c r="C12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D12/(B4*B3)))</f>
+        <v>5.11207917771296</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+      <c r="C13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D13/(B4*B3)))</f>
+        <v>5.1306774523975</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D14/(B4*B3)))</f>
+        <v>5.14925249376253</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/priklad5/data5.xlsx
+++ b/priklad5/data5.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,11 +77,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,11 +120,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,19 +137,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,58 +162,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.61"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
@@ -231,179 +223,217 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(1/(B4*B3)))</f>
         <v>5.01873828613129</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D7/(B4*B3)))</f>
         <v>5.01873828613129</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">E7-E6</f>
+        <v>0.0187382861312901</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
         <f aca="false">B5</f>
         <v>5</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D8/(B4*B3)))</f>
         <v>5.03745316403811</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">E8-E7</f>
+        <v>0.0187148779068203</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>2.71828182846</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D9/(B4*B3)))</f>
         <v>5.05614466296245</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">E9-E8</f>
+        <v>0.0186914989243396</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
-      <c r="C10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D10/(B4*B3)))</f>
         <v>5.07481281210979</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">E10-E9</f>
+        <v>0.0186681491473397</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
-      <c r="C11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D11/(B4*B3)))</f>
         <v>5.09345764064911</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">E11-E10</f>
+        <v>0.0186448285393199</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
-      <c r="C12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D12/(B4*B3)))</f>
         <v>5.11207917771296</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">E12-E11</f>
+        <v>0.0186215370638507</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
-      <c r="C13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D13/(B4*B3)))</f>
         <v>5.1306774523975</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">E13-E12</f>
+        <v>0.0185982746845399</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
-      <c r="C14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="n">
         <f aca="false">B2+(B8-B2)*B9^(-(D14/(B4*B3)))</f>
         <v>5.14925249376253</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">E14-E13</f>
+        <v>0.0185750413650299</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="6"/>
+      <c r="D15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">B2+(B8-B2)*B9^(-(D15/(B4*B3)))</f>
+        <v>5.90880405779817</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="6"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="6"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="6"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="6"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="6"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="6"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="6"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="6"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="6"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="6"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="6"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="6"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="6"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="6"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="6"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="6"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="6"/>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
